--- a/Code/Results/Cases/Case_0_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_94/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2906672013849771</v>
+        <v>0.4145870963266276</v>
       </c>
       <c r="D2">
-        <v>0.07135028954750311</v>
+        <v>0.1615748415685587</v>
       </c>
       <c r="E2">
-        <v>0.09460069602860699</v>
+        <v>0.1784203654063781</v>
       </c>
       <c r="F2">
-        <v>1.64142304837803</v>
+        <v>1.907250001524517</v>
       </c>
       <c r="G2">
-        <v>1.398571940123958</v>
+        <v>1.258863221492163</v>
       </c>
       <c r="H2">
-        <v>0.7829734909833235</v>
+        <v>1.139205889773478</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1389251875321307</v>
+        <v>0.2336961426485686</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06575782215596604</v>
+        <v>0.1609786650763496</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.554766457157598</v>
+        <v>4.892343549182613</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2648191504036816</v>
+        <v>0.4107024072650205</v>
       </c>
       <c r="D3">
-        <v>0.06801556063013692</v>
+        <v>0.1615709920222912</v>
       </c>
       <c r="E3">
-        <v>0.08829168160850642</v>
+        <v>0.1778979785889234</v>
       </c>
       <c r="F3">
-        <v>1.474483329676772</v>
+        <v>1.877333202784769</v>
       </c>
       <c r="G3">
-        <v>1.239332217097797</v>
+        <v>1.226370776659252</v>
       </c>
       <c r="H3">
-        <v>0.7140766837168258</v>
+        <v>1.12911278080685</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1282041312393005</v>
+        <v>0.2324819634782926</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06322577217077807</v>
+        <v>0.1611842094933174</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.07247046894571</v>
+        <v>4.801883612414315</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2493502335153579</v>
+        <v>0.4085160041098703</v>
       </c>
       <c r="D4">
-        <v>0.0660482852840758</v>
+        <v>0.1616226682646627</v>
       </c>
       <c r="E4">
-        <v>0.0845445663130846</v>
+        <v>0.1776499131432097</v>
       </c>
       <c r="F4">
-        <v>1.374323456204152</v>
+        <v>1.859969350165528</v>
       </c>
       <c r="G4">
-        <v>1.14354053265626</v>
+        <v>1.207147119791188</v>
       </c>
       <c r="H4">
-        <v>0.6729021160731747</v>
+        <v>1.12346002733662</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1218214614426074</v>
+        <v>0.2318405107042523</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06174964215676937</v>
+        <v>0.1613630788569225</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.782885614023996</v>
+        <v>4.749003842339505</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2431398494577195</v>
+        <v>0.4076750433128353</v>
       </c>
       <c r="D5">
-        <v>0.06526579970243773</v>
+        <v>0.1616573420265084</v>
       </c>
       <c r="E5">
-        <v>0.08304739593245003</v>
+        <v>0.1775671208319984</v>
       </c>
       <c r="F5">
-        <v>1.334045195922542</v>
+        <v>1.853146138553939</v>
       </c>
       <c r="G5">
-        <v>1.104954856905778</v>
+        <v>1.19949587067164</v>
       </c>
       <c r="H5">
-        <v>0.6563846136820928</v>
+        <v>1.121293439370419</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1192671533853797</v>
+        <v>0.2316052930080659</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0611669003905746</v>
+        <v>0.1614492342832712</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.666374842582229</v>
+        <v>4.728124154461455</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2421140398592172</v>
+        <v>0.407538423988143</v>
       </c>
       <c r="D6">
-        <v>0.0651370002000462</v>
+        <v>0.1616639226903445</v>
       </c>
       <c r="E6">
-        <v>0.08280053531265352</v>
+        <v>0.1775544788789674</v>
       </c>
       <c r="F6">
-        <v>1.327388065775466</v>
+        <v>1.852028410230815</v>
       </c>
       <c r="G6">
-        <v>1.09857357778337</v>
+        <v>1.19823640563169</v>
       </c>
       <c r="H6">
-        <v>0.6536570643601038</v>
+        <v>1.120941952292839</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1188457302301131</v>
+        <v>0.2315678168708715</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0610712447196633</v>
+        <v>0.1614643421286104</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.647114593805156</v>
+        <v>4.724697508323914</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2492661100933162</v>
+        <v>0.4085044600716969</v>
       </c>
       <c r="D7">
-        <v>0.06603765594985589</v>
+        <v>0.1616230807243824</v>
       </c>
       <c r="E7">
-        <v>0.08452425684749088</v>
+        <v>0.1776487224690619</v>
       </c>
       <c r="F7">
-        <v>1.373778137521754</v>
+        <v>1.859876306866084</v>
       </c>
       <c r="G7">
-        <v>1.143018391235472</v>
+        <v>1.20704319353959</v>
       </c>
       <c r="H7">
-        <v>0.672678324925414</v>
+        <v>1.123430253392598</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1217868287672772</v>
+        <v>0.2318372324579769</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06174170822870195</v>
+        <v>0.1613641870419684</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.781308435578865</v>
+        <v>4.748719542336403</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2816665603978095</v>
+        <v>0.4132064037992222</v>
       </c>
       <c r="D8">
-        <v>0.07018320188232252</v>
+        <v>0.1615623138245326</v>
       </c>
       <c r="E8">
-        <v>0.09239779316055774</v>
+        <v>0.1782251725284851</v>
       </c>
       <c r="F8">
-        <v>1.583344276061283</v>
+        <v>1.896726010695119</v>
       </c>
       <c r="G8">
-        <v>1.343224603225082</v>
+        <v>1.24750882414645</v>
       </c>
       <c r="H8">
-        <v>0.7589697864432594</v>
+        <v>1.135612805412848</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.135184767664569</v>
+        <v>0.2332559032986694</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06486786709929859</v>
+        <v>0.1610386191530893</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.387019120166883</v>
+        <v>4.860599982157794</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3487715019664961</v>
+        <v>0.4240043641165983</v>
       </c>
       <c r="D9">
-        <v>0.07899773853705483</v>
+        <v>0.1618709033210948</v>
       </c>
       <c r="E9">
-        <v>0.1089424535995001</v>
+        <v>0.1799316716273083</v>
       </c>
       <c r="F9">
-        <v>2.015395767200303</v>
+        <v>1.97697307805548</v>
       </c>
       <c r="G9">
-        <v>1.753923792174533</v>
+        <v>1.332644793882451</v>
       </c>
       <c r="H9">
-        <v>0.9382341243810401</v>
+        <v>1.163823441513983</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1632243206813442</v>
+        <v>0.2368634153450557</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07166871888609805</v>
+        <v>0.1608171973375399</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.634073602072533</v>
+        <v>5.10116252340174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4008252118140092</v>
+        <v>0.4329007671991292</v>
       </c>
       <c r="D10">
-        <v>0.08596474182782998</v>
+        <v>0.1623572111732869</v>
       </c>
       <c r="E10">
-        <v>0.121923201284396</v>
+        <v>0.1815361776646114</v>
       </c>
       <c r="F10">
-        <v>2.349515612903929</v>
+        <v>2.040820501381802</v>
       </c>
       <c r="G10">
-        <v>2.070310699451511</v>
+        <v>1.3987501284129</v>
       </c>
       <c r="H10">
-        <v>1.077735688674636</v>
+        <v>1.187188775875427</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1851741583348314</v>
+        <v>0.2400175384908252</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07714583962176391</v>
+        <v>0.1609077591747052</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.597572748559344</v>
+        <v>5.29088259680185</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4252456720114139</v>
+        <v>0.437157536141342</v>
       </c>
       <c r="D11">
-        <v>0.08925880134954411</v>
+        <v>0.1626345781304366</v>
       </c>
       <c r="E11">
-        <v>0.1280452313274125</v>
+        <v>0.1823422034695525</v>
       </c>
       <c r="F11">
-        <v>2.506090006833972</v>
+        <v>2.070933559428283</v>
       </c>
       <c r="G11">
-        <v>2.218320448680743</v>
+        <v>1.429602432515935</v>
       </c>
       <c r="H11">
-        <v>1.143306332572365</v>
+        <v>1.198392676901079</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1955202479775409</v>
+        <v>0.2415619452893978</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07975961899347084</v>
+        <v>0.1610037532331106</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.048931978765665</v>
+        <v>5.380027571598816</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4346127269076874</v>
+        <v>0.4387996321026719</v>
       </c>
       <c r="D12">
-        <v>0.09052575646644101</v>
+        <v>0.1627476604520695</v>
       </c>
       <c r="E12">
-        <v>0.13039815037666</v>
+        <v>0.1826583594943827</v>
       </c>
       <c r="F12">
-        <v>2.566127375101132</v>
+        <v>2.08249050447148</v>
       </c>
       <c r="G12">
-        <v>2.275038159136557</v>
+        <v>1.44139806064598</v>
       </c>
       <c r="H12">
-        <v>1.168478183217019</v>
+        <v>1.202718009387411</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1994962106563705</v>
+        <v>0.2421625299240802</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08076860042604039</v>
+        <v>0.1610479651501322</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.221984316641624</v>
+        <v>5.414193847512422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4325898257306733</v>
+        <v>0.4384446366102281</v>
       </c>
       <c r="D13">
-        <v>0.09025199719909693</v>
+        <v>0.1627229485252997</v>
       </c>
       <c r="E13">
-        <v>0.129889808265002</v>
+        <v>0.1825897836986812</v>
       </c>
       <c r="F13">
-        <v>2.553162588331588</v>
+        <v>2.079994667914917</v>
       </c>
       <c r="G13">
-        <v>2.262791800078503</v>
+        <v>1.438852651878591</v>
       </c>
       <c r="H13">
-        <v>1.163041128855639</v>
+        <v>1.201782795529311</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1986372251397128</v>
+        <v>0.2420324828275469</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08055041665855356</v>
+        <v>0.1610380939956855</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.184615224344554</v>
+        <v>5.406817328695979</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4260138300534777</v>
+        <v>0.4372920281788311</v>
       </c>
       <c r="D14">
-        <v>0.08936263249040621</v>
+        <v>0.1626437202936017</v>
       </c>
       <c r="E14">
-        <v>0.1282380923006059</v>
+        <v>0.1823679948194865</v>
       </c>
       <c r="F14">
-        <v>2.511013833993161</v>
+        <v>2.071881273450202</v>
       </c>
       <c r="G14">
-        <v>2.222972726216142</v>
+        <v>1.430570609092314</v>
       </c>
       <c r="H14">
-        <v>1.145370155633714</v>
+        <v>1.198746868062045</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1958461500890678</v>
+        <v>0.2416110401033933</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07984223381366462</v>
+        <v>0.1610072331328709</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.063124810463023</v>
+        <v>5.382830251232178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4220018206154634</v>
+        <v>0.4365899483082671</v>
       </c>
       <c r="D15">
-        <v>0.08882047000974325</v>
+        <v>0.1625962382890407</v>
       </c>
       <c r="E15">
-        <v>0.1272309872677937</v>
+        <v>0.1822335658805763</v>
       </c>
       <c r="F15">
-        <v>2.485296402234525</v>
+        <v>2.066931616112072</v>
       </c>
       <c r="G15">
-        <v>2.198672189183213</v>
+        <v>1.425512281660389</v>
       </c>
       <c r="H15">
-        <v>1.134591869542533</v>
+        <v>1.196898039116945</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1941443005856627</v>
+        <v>0.2413549453743116</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07941100279725788</v>
+        <v>0.1609893531540649</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.988994127045999</v>
+        <v>5.36819075578677</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3992452704963512</v>
+        <v>0.4326267970164395</v>
       </c>
       <c r="D16">
-        <v>0.0857521131449559</v>
+        <v>0.1623402122907649</v>
       </c>
       <c r="E16">
-        <v>0.1215277650066966</v>
+        <v>0.1814850325341304</v>
       </c>
       <c r="F16">
-        <v>2.339382557883553</v>
+        <v>2.038874054898656</v>
       </c>
       <c r="G16">
-        <v>2.060726943723267</v>
+        <v>1.396749589797309</v>
       </c>
       <c r="H16">
-        <v>1.073496139084966</v>
+        <v>1.186468141939258</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1845057980571667</v>
+        <v>0.2399188123671863</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07697761756617183</v>
+        <v>0.1609025867895042</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.568359311243512</v>
+        <v>5.285113966609515</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3854835045394509</v>
+        <v>0.4302492454531262</v>
       </c>
       <c r="D17">
-        <v>0.08390283576307667</v>
+        <v>0.162197511197526</v>
       </c>
       <c r="E17">
-        <v>0.1180869453089777</v>
+        <v>0.1810453185918952</v>
       </c>
       <c r="F17">
-        <v>2.251101935548803</v>
+        <v>2.021935419282357</v>
       </c>
       <c r="G17">
-        <v>1.977203991531411</v>
+        <v>1.379304747435526</v>
       </c>
       <c r="H17">
-        <v>1.036582432908034</v>
+        <v>1.180216973275918</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1786895751359481</v>
+        <v>0.2390658528427707</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07551722308164699</v>
+        <v>0.1608633798888732</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.313831251855106</v>
+        <v>5.234876931550048</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3776369937684478</v>
+        <v>0.4289014840590539</v>
       </c>
       <c r="D18">
-        <v>0.08285081484401502</v>
+        <v>0.1621207191679446</v>
       </c>
       <c r="E18">
-        <v>0.1161280796851827</v>
+        <v>0.180799573198211</v>
       </c>
       <c r="F18">
-        <v>2.200750782965471</v>
+        <v>2.012293332637228</v>
       </c>
       <c r="G18">
-        <v>1.929542779067646</v>
+        <v>1.369344397988584</v>
       </c>
       <c r="H18">
-        <v>1.015546810287333</v>
+        <v>1.17667557853423</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.175377809242427</v>
+        <v>0.2385855676478457</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07468863938689907</v>
+        <v>0.1608459879751223</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.168645891449046</v>
+        <v>5.206249231189076</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3749917565881447</v>
+        <v>0.4284485465299497</v>
       </c>
       <c r="D19">
-        <v>0.08249656965600138</v>
+        <v>0.1620956272873002</v>
       </c>
       <c r="E19">
-        <v>0.1154682121384276</v>
+        <v>0.1807175993517802</v>
       </c>
       <c r="F19">
-        <v>2.183773316090409</v>
+        <v>2.009045956693328</v>
       </c>
       <c r="G19">
-        <v>1.913468225402056</v>
+        <v>1.365984603809324</v>
       </c>
       <c r="H19">
-        <v>1.008457101089192</v>
+        <v>1.175485817301706</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1742620889832054</v>
+        <v>0.2384247230671477</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0744100055724104</v>
+        <v>0.1608409859847058</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.119689519940493</v>
+        <v>5.19660227799335</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3869412476645095</v>
+        <v>0.4305002966017355</v>
       </c>
       <c r="D20">
-        <v>0.08409847904422207</v>
+        <v>0.162212155078997</v>
       </c>
       <c r="E20">
-        <v>0.1184511117276728</v>
+        <v>0.1810913853069458</v>
       </c>
       <c r="F20">
-        <v>2.260454914216766</v>
+        <v>2.023728156611398</v>
       </c>
       <c r="G20">
-        <v>1.986055358983691</v>
+        <v>1.381154175649641</v>
       </c>
       <c r="H20">
-        <v>1.040491393531795</v>
+        <v>1.180876820556904</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1793052044426986</v>
+        <v>0.2391555843693425</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07567149378986926</v>
+        <v>0.1608670197441953</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.340798952386706</v>
+        <v>5.240197079765721</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4279420045735662</v>
+        <v>0.4376297590447109</v>
       </c>
       <c r="D21">
-        <v>0.08962331568989157</v>
+        <v>0.1626667732733722</v>
       </c>
       <c r="E21">
-        <v>0.1287222721755512</v>
+        <v>0.1824328430330162</v>
       </c>
       <c r="F21">
-        <v>2.523372957917758</v>
+        <v>2.074260199388647</v>
       </c>
       <c r="G21">
-        <v>2.23464968096107</v>
+        <v>1.433000189587574</v>
       </c>
       <c r="H21">
-        <v>1.150550952230958</v>
+        <v>1.199636350297197</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.196664326363674</v>
+        <v>0.2417344006087063</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08004970943297707</v>
+        <v>0.1610160845177546</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.098749457838892</v>
+        <v>5.38986473235741</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4554422332081742</v>
+        <v>0.4424650069443601</v>
       </c>
       <c r="D22">
-        <v>0.09334903324312194</v>
+        <v>0.1630108001391619</v>
       </c>
       <c r="E22">
-        <v>0.1356388189016364</v>
+        <v>0.1833732736285434</v>
       </c>
       <c r="F22">
-        <v>2.699600734784212</v>
+        <v>2.108182241695914</v>
       </c>
       <c r="G22">
-        <v>2.401068121799085</v>
+        <v>1.467540598247581</v>
       </c>
       <c r="H22">
-        <v>1.224493402292183</v>
+        <v>1.212378580641257</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2083516594574775</v>
+        <v>0.243511614216203</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0830239136557509</v>
+        <v>0.1611593186795943</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.606680853974296</v>
+        <v>5.49006548527683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4406957973268391</v>
+        <v>0.4398682683589925</v>
       </c>
       <c r="D23">
-        <v>0.09134945327886612</v>
+        <v>0.1628229022961492</v>
       </c>
       <c r="E23">
-        <v>0.1319274596193516</v>
+        <v>0.1828655236690686</v>
       </c>
       <c r="F23">
-        <v>2.605111246198021</v>
+        <v>2.089995342099598</v>
       </c>
       <c r="G23">
-        <v>2.311856759375388</v>
+        <v>1.449045613039544</v>
       </c>
       <c r="H23">
-        <v>1.184831148209412</v>
+        <v>1.20553373112412</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2020803805513438</v>
+        <v>0.2425546833322372</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08142562411022425</v>
+        <v>0.1610786862495246</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.334347290118728</v>
+        <v>5.436368103370228</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.386281999533054</v>
+        <v>0.4303867368065539</v>
       </c>
       <c r="D24">
-        <v>0.08400999409826682</v>
+        <v>0.1622055182295625</v>
       </c>
       <c r="E24">
-        <v>0.1182864122065048</v>
+        <v>0.1810705365783676</v>
       </c>
       <c r="F24">
-        <v>2.2562251851799</v>
+        <v>2.022917360543076</v>
       </c>
       <c r="G24">
-        <v>1.982052549141827</v>
+        <v>1.380317834488039</v>
       </c>
       <c r="H24">
-        <v>1.038723574180437</v>
+        <v>1.180578340109975</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1790267790408251</v>
+        <v>0.239114985309314</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07560171380955438</v>
+        <v>0.1608653581272819</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.328603303702096</v>
+        <v>5.237791048862846</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3301793478161414</v>
+        <v>0.4209142018315504</v>
       </c>
       <c r="D25">
-        <v>0.07653262217462498</v>
+        <v>0.1617417508112524</v>
       </c>
       <c r="E25">
-        <v>0.104333528476527</v>
+        <v>0.1794083929520234</v>
       </c>
       <c r="F25">
-        <v>1.895881134862805</v>
+        <v>1.954407016463563</v>
       </c>
       <c r="G25">
-        <v>1.640527879381182</v>
+        <v>1.308991014268571</v>
       </c>
       <c r="H25">
-        <v>0.8884993184904886</v>
+        <v>1.155728654418482</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1554231351526312</v>
+        <v>0.2357990689262337</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.06975009595329951</v>
+        <v>0.1608325559549506</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.289276300750544</v>
+        <v>5.033810303472819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_94/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4145870963266276</v>
+        <v>0.2906672013850482</v>
       </c>
       <c r="D2">
-        <v>0.1615748415685587</v>
+        <v>0.07135028954760969</v>
       </c>
       <c r="E2">
-        <v>0.1784203654063781</v>
+        <v>0.09460069602861054</v>
       </c>
       <c r="F2">
-        <v>1.907250001524517</v>
+        <v>1.641423048378044</v>
       </c>
       <c r="G2">
-        <v>1.258863221492163</v>
+        <v>1.398571940123986</v>
       </c>
       <c r="H2">
-        <v>1.139205889773478</v>
+        <v>0.7829734909834372</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2336961426485686</v>
+        <v>0.138925187532088</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1609786650763496</v>
+        <v>0.06575782215592341</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.892343549182613</v>
+        <v>4.554766457157655</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4107024072650205</v>
+        <v>0.264819150403838</v>
       </c>
       <c r="D3">
-        <v>0.1615709920222912</v>
+        <v>0.06801556063010139</v>
       </c>
       <c r="E3">
-        <v>0.1778979785889234</v>
+        <v>0.08829168160850998</v>
       </c>
       <c r="F3">
-        <v>1.877333202784769</v>
+        <v>1.474483329676787</v>
       </c>
       <c r="G3">
-        <v>1.226370776659252</v>
+        <v>1.239332217097854</v>
       </c>
       <c r="H3">
-        <v>1.12911278080685</v>
+        <v>0.7140766837168258</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2324819634782926</v>
+        <v>0.1282041312393503</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1611842094933174</v>
+        <v>0.06322577217070702</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.801883612414315</v>
+        <v>4.072470468945653</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4085160041098703</v>
+        <v>0.2493502335152442</v>
       </c>
       <c r="D4">
-        <v>0.1616226682646627</v>
+        <v>0.06604828528428186</v>
       </c>
       <c r="E4">
-        <v>0.1776499131432097</v>
+        <v>0.08454456631308815</v>
       </c>
       <c r="F4">
-        <v>1.859969350165528</v>
+        <v>1.374323456204152</v>
       </c>
       <c r="G4">
-        <v>1.207147119791188</v>
+        <v>1.14354053265626</v>
       </c>
       <c r="H4">
-        <v>1.12346002733662</v>
+        <v>0.6729021160731747</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2318405107042523</v>
+        <v>0.1218214614426643</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1613630788569225</v>
+        <v>0.06174964215667345</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.749003842339505</v>
+        <v>3.782885614023996</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4076750433128353</v>
+        <v>0.2431398494577479</v>
       </c>
       <c r="D5">
-        <v>0.1616573420265084</v>
+        <v>0.06526579970223878</v>
       </c>
       <c r="E5">
-        <v>0.1775671208319984</v>
+        <v>0.08304739593246069</v>
       </c>
       <c r="F5">
-        <v>1.853146138553939</v>
+        <v>1.334045195922528</v>
       </c>
       <c r="G5">
-        <v>1.19949587067164</v>
+        <v>1.104954856905835</v>
       </c>
       <c r="H5">
-        <v>1.121293439370419</v>
+        <v>0.6563846136820075</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2316052930080659</v>
+        <v>0.1192671533853868</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1614492342832712</v>
+        <v>0.06116690039057104</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.728124154461455</v>
+        <v>3.666374842582229</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.407538423988143</v>
+        <v>0.2421140398593309</v>
       </c>
       <c r="D6">
-        <v>0.1616639226903445</v>
+        <v>0.06513700019997515</v>
       </c>
       <c r="E6">
-        <v>0.1775544788789674</v>
+        <v>0.08280053531265708</v>
       </c>
       <c r="F6">
-        <v>1.852028410230815</v>
+        <v>1.327388065775452</v>
       </c>
       <c r="G6">
-        <v>1.19823640563169</v>
+        <v>1.098573577783341</v>
       </c>
       <c r="H6">
-        <v>1.120941952292839</v>
+        <v>0.6536570643601181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2315678168708715</v>
+        <v>0.1188457302301202</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1614643421286104</v>
+        <v>0.0610712447196704</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.724697508323914</v>
+        <v>3.647114593805156</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4085044600716969</v>
+        <v>0.2492661100931173</v>
       </c>
       <c r="D7">
-        <v>0.1616230807243824</v>
+        <v>0.06603765594977773</v>
       </c>
       <c r="E7">
-        <v>0.1776487224690619</v>
+        <v>0.08452425684748732</v>
       </c>
       <c r="F7">
-        <v>1.859876306866084</v>
+        <v>1.373778137521754</v>
       </c>
       <c r="G7">
-        <v>1.20704319353959</v>
+        <v>1.143018391235501</v>
       </c>
       <c r="H7">
-        <v>1.123430253392598</v>
+        <v>0.6726783249255277</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2318372324579769</v>
+        <v>0.1217868287672772</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1613641870419684</v>
+        <v>0.06174170822879432</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.748719542336403</v>
+        <v>3.781308435578865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4132064037992222</v>
+        <v>0.2816665603978805</v>
       </c>
       <c r="D8">
-        <v>0.1615623138245326</v>
+        <v>0.07018320188231542</v>
       </c>
       <c r="E8">
-        <v>0.1782251725284851</v>
+        <v>0.09239779316054708</v>
       </c>
       <c r="F8">
-        <v>1.896726010695119</v>
+        <v>1.583344276061283</v>
       </c>
       <c r="G8">
-        <v>1.24750882414645</v>
+        <v>1.34322460322511</v>
       </c>
       <c r="H8">
-        <v>1.135612805412848</v>
+        <v>0.7589697864431457</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2332559032986694</v>
+        <v>0.1351847676646187</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1610386191530893</v>
+        <v>0.0648678670993057</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.860599982157794</v>
+        <v>4.387019120166883</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4240043641165983</v>
+        <v>0.3487715019662687</v>
       </c>
       <c r="D9">
-        <v>0.1618709033210948</v>
+        <v>0.07899773853684167</v>
       </c>
       <c r="E9">
-        <v>0.1799316716273083</v>
+        <v>0.1089424535994752</v>
       </c>
       <c r="F9">
-        <v>1.97697307805548</v>
+        <v>2.015395767200289</v>
       </c>
       <c r="G9">
-        <v>1.332644793882451</v>
+        <v>1.753923792174646</v>
       </c>
       <c r="H9">
-        <v>1.163823441513983</v>
+        <v>0.9382341243810117</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2368634153450557</v>
+        <v>0.163224320681401</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1608171973375399</v>
+        <v>0.07166871888621174</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.10116252340174</v>
+        <v>5.63407360207259</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4329007671991292</v>
+        <v>0.4008252118141513</v>
       </c>
       <c r="D10">
-        <v>0.1623572111732869</v>
+        <v>0.08596474182782998</v>
       </c>
       <c r="E10">
-        <v>0.1815361776646114</v>
+        <v>0.1219232012843889</v>
       </c>
       <c r="F10">
-        <v>2.040820501381802</v>
+        <v>2.349515612903943</v>
       </c>
       <c r="G10">
-        <v>1.3987501284129</v>
+        <v>2.070310699451483</v>
       </c>
       <c r="H10">
-        <v>1.187188775875427</v>
+        <v>1.077735688674665</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2400175384908252</v>
+        <v>0.1851741583348385</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1609077591747052</v>
+        <v>0.07714583962177102</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.29088259680185</v>
+        <v>6.597572748559401</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.437157536141342</v>
+        <v>0.4252456720111866</v>
       </c>
       <c r="D11">
-        <v>0.1626345781304366</v>
+        <v>0.0892588013496507</v>
       </c>
       <c r="E11">
-        <v>0.1823422034695525</v>
+        <v>0.1280452313274267</v>
       </c>
       <c r="F11">
-        <v>2.070933559428283</v>
+        <v>2.506090006833944</v>
       </c>
       <c r="G11">
-        <v>1.429602432515935</v>
+        <v>2.218320448680601</v>
       </c>
       <c r="H11">
-        <v>1.198392676901079</v>
+        <v>1.14330633257228</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2415619452893978</v>
+        <v>0.1955202479775409</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1610037532331106</v>
+        <v>0.07975961899358452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.380027571598816</v>
+        <v>7.048931978765665</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4387996321026719</v>
+        <v>0.4346127269072326</v>
       </c>
       <c r="D12">
-        <v>0.1627476604520695</v>
+        <v>0.09052575646656891</v>
       </c>
       <c r="E12">
-        <v>0.1826583594943827</v>
+        <v>0.1303981503767027</v>
       </c>
       <c r="F12">
-        <v>2.08249050447148</v>
+        <v>2.566127375101161</v>
       </c>
       <c r="G12">
-        <v>1.44139806064598</v>
+        <v>2.275038159136614</v>
       </c>
       <c r="H12">
-        <v>1.202718009387411</v>
+        <v>1.168478183217019</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2421625299240802</v>
+        <v>0.1994962106563136</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1610479651501322</v>
+        <v>0.08076860042611145</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.414193847512422</v>
+        <v>7.221984316641624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4384446366102281</v>
+        <v>0.4325898257309007</v>
       </c>
       <c r="D13">
-        <v>0.1627229485252997</v>
+        <v>0.09025199719932431</v>
       </c>
       <c r="E13">
-        <v>0.1825897836986812</v>
+        <v>0.1298898082649771</v>
       </c>
       <c r="F13">
-        <v>2.079994667914917</v>
+        <v>2.553162588331588</v>
       </c>
       <c r="G13">
-        <v>1.438852651878591</v>
+        <v>2.262791800078475</v>
       </c>
       <c r="H13">
-        <v>1.201782795529311</v>
+        <v>1.163041128855639</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2420324828275469</v>
+        <v>0.1986372251397768</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1610380939956855</v>
+        <v>0.08055041665850382</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.406817328695979</v>
+        <v>7.184615224344611</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4372920281788311</v>
+        <v>0.4260138300537051</v>
       </c>
       <c r="D14">
-        <v>0.1626437202936017</v>
+        <v>0.08936263249051279</v>
       </c>
       <c r="E14">
-        <v>0.1823679948194865</v>
+        <v>0.1282380923005491</v>
       </c>
       <c r="F14">
-        <v>2.071881273450202</v>
+        <v>2.511013833993161</v>
       </c>
       <c r="G14">
-        <v>1.430570609092314</v>
+        <v>2.222972726216199</v>
       </c>
       <c r="H14">
-        <v>1.198746868062045</v>
+        <v>1.145370155633714</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2416110401033933</v>
+        <v>0.1958461500891175</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1610072331328709</v>
+        <v>0.07984223381366462</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.382830251232178</v>
+        <v>7.063124810462966</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4365899483082671</v>
+        <v>0.4220018206152645</v>
       </c>
       <c r="D15">
-        <v>0.1625962382890407</v>
+        <v>0.08882047000963667</v>
       </c>
       <c r="E15">
-        <v>0.1822335658805763</v>
+        <v>0.1272309872677972</v>
       </c>
       <c r="F15">
-        <v>2.066931616112072</v>
+        <v>2.485296402234525</v>
       </c>
       <c r="G15">
-        <v>1.425512281660389</v>
+        <v>2.198672189183156</v>
       </c>
       <c r="H15">
-        <v>1.196898039116945</v>
+        <v>1.134591869542561</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2413549453743116</v>
+        <v>0.1941443005856129</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1609893531540649</v>
+        <v>0.07941100279725788</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.36819075578677</v>
+        <v>6.988994127046112</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4326267970164395</v>
+        <v>0.3992452704963796</v>
       </c>
       <c r="D16">
-        <v>0.1623402122907649</v>
+        <v>0.0857521131449559</v>
       </c>
       <c r="E16">
-        <v>0.1814850325341304</v>
+        <v>0.1215277650067037</v>
       </c>
       <c r="F16">
-        <v>2.038874054898656</v>
+        <v>2.339382557883539</v>
       </c>
       <c r="G16">
-        <v>1.396749589797309</v>
+        <v>2.060726943723296</v>
       </c>
       <c r="H16">
-        <v>1.186468141939258</v>
+        <v>1.073496139085108</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2399188123671863</v>
+        <v>0.1845057980572236</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1609025867895042</v>
+        <v>0.07697761756617183</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.285113966609515</v>
+        <v>6.568359311243512</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4302492454531262</v>
+        <v>0.3854835045397351</v>
       </c>
       <c r="D17">
-        <v>0.162197511197526</v>
+        <v>0.0839028357629843</v>
       </c>
       <c r="E17">
-        <v>0.1810453185918952</v>
+        <v>0.1180869453089386</v>
       </c>
       <c r="F17">
-        <v>2.021935419282357</v>
+        <v>2.25110193554876</v>
       </c>
       <c r="G17">
-        <v>1.379304747435526</v>
+        <v>1.977203991531297</v>
       </c>
       <c r="H17">
-        <v>1.180216973275918</v>
+        <v>1.036582432908034</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2390658528427707</v>
+        <v>0.1786895751358983</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1608633798888732</v>
+        <v>0.07551722308163988</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.234876931550048</v>
+        <v>6.313831251855106</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4289014840590539</v>
+        <v>0.3776369937686468</v>
       </c>
       <c r="D18">
-        <v>0.1621207191679446</v>
+        <v>0.08285081484401502</v>
       </c>
       <c r="E18">
-        <v>0.180799573198211</v>
+        <v>0.1161280796851791</v>
       </c>
       <c r="F18">
-        <v>2.012293332637228</v>
+        <v>2.200750782965471</v>
       </c>
       <c r="G18">
-        <v>1.369344397988584</v>
+        <v>1.929542779067674</v>
       </c>
       <c r="H18">
-        <v>1.17667557853423</v>
+        <v>1.015546810287333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2385855676478457</v>
+        <v>0.1753778092425264</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1608459879751223</v>
+        <v>0.07468863938701631</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.206249231189076</v>
+        <v>6.168645891449103</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4284485465299497</v>
+        <v>0.3749917565877183</v>
       </c>
       <c r="D19">
-        <v>0.1620956272873002</v>
+        <v>0.08249656965590901</v>
       </c>
       <c r="E19">
-        <v>0.1807175993517802</v>
+        <v>0.1154682121384241</v>
       </c>
       <c r="F19">
-        <v>2.009045956693328</v>
+        <v>2.183773316090424</v>
       </c>
       <c r="G19">
-        <v>1.365984603809324</v>
+        <v>1.913468225401999</v>
       </c>
       <c r="H19">
-        <v>1.175485817301706</v>
+        <v>1.008457101089192</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2384247230671477</v>
+        <v>0.1742620889831556</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1608409859847058</v>
+        <v>0.07441000557231092</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.19660227799335</v>
+        <v>6.119689519940493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4305002966017355</v>
+        <v>0.3869412476645095</v>
       </c>
       <c r="D20">
-        <v>0.162212155078997</v>
+        <v>0.08409847904422207</v>
       </c>
       <c r="E20">
-        <v>0.1810913853069458</v>
+        <v>0.1184511117277012</v>
       </c>
       <c r="F20">
-        <v>2.023728156611398</v>
+        <v>2.260454914216766</v>
       </c>
       <c r="G20">
-        <v>1.381154175649641</v>
+        <v>1.98605535898372</v>
       </c>
       <c r="H20">
-        <v>1.180876820556904</v>
+        <v>1.040491393531795</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2391555843693425</v>
+        <v>0.1793052044427625</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1608670197441953</v>
+        <v>0.07567149378999005</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.240197079765721</v>
+        <v>6.340798952386706</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4376297590447109</v>
+        <v>0.4279420045733673</v>
       </c>
       <c r="D21">
-        <v>0.1626667732733722</v>
+        <v>0.08962331568989157</v>
       </c>
       <c r="E21">
-        <v>0.1824328430330162</v>
+        <v>0.1287222721755477</v>
       </c>
       <c r="F21">
-        <v>2.074260199388647</v>
+        <v>2.523372957917701</v>
       </c>
       <c r="G21">
-        <v>1.433000189587574</v>
+        <v>2.234649680961098</v>
       </c>
       <c r="H21">
-        <v>1.199636350297197</v>
+        <v>1.150550952230958</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2417344006087063</v>
+        <v>0.1966643263636669</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1610160845177546</v>
+        <v>0.08004970943296996</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.38986473235741</v>
+        <v>7.098749457838949</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4424650069443601</v>
+        <v>0.4554422332079469</v>
       </c>
       <c r="D22">
-        <v>0.1630108001391619</v>
+        <v>0.09334903324323562</v>
       </c>
       <c r="E22">
-        <v>0.1833732736285434</v>
+        <v>0.1356388189016648</v>
       </c>
       <c r="F22">
-        <v>2.108182241695914</v>
+        <v>2.699600734784212</v>
       </c>
       <c r="G22">
-        <v>1.467540598247581</v>
+        <v>2.401068121798971</v>
       </c>
       <c r="H22">
-        <v>1.212378580641257</v>
+        <v>1.224493402292211</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.243511614216203</v>
+        <v>0.208351659457243</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1611593186795943</v>
+        <v>0.08302391365575801</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.49006548527683</v>
+        <v>7.606680853974296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4398682683589925</v>
+        <v>0.4406957973270096</v>
       </c>
       <c r="D23">
-        <v>0.1628229022961492</v>
+        <v>0.09134945327864585</v>
       </c>
       <c r="E23">
-        <v>0.1828655236690686</v>
+        <v>0.1319274596193232</v>
       </c>
       <c r="F23">
-        <v>2.089995342099598</v>
+        <v>2.605111246197993</v>
       </c>
       <c r="G23">
-        <v>1.449045613039544</v>
+        <v>2.311856759375388</v>
       </c>
       <c r="H23">
-        <v>1.20553373112412</v>
+        <v>1.184831148209383</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2425546833322372</v>
+        <v>0.2020803805514078</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1610786862495246</v>
+        <v>0.08142562411021004</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.436368103370228</v>
+        <v>7.334347290118728</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4303867368065539</v>
+        <v>0.3862819995332814</v>
       </c>
       <c r="D24">
-        <v>0.1622055182295625</v>
+        <v>0.08400999409805365</v>
       </c>
       <c r="E24">
-        <v>0.1810705365783676</v>
+        <v>0.1182864122065155</v>
       </c>
       <c r="F24">
-        <v>2.022917360543076</v>
+        <v>2.2562251851799</v>
       </c>
       <c r="G24">
-        <v>1.380317834488039</v>
+        <v>1.98205254914177</v>
       </c>
       <c r="H24">
-        <v>1.180578340109975</v>
+        <v>1.038723574180409</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.239114985309314</v>
+        <v>0.1790267790409033</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1608653581272819</v>
+        <v>0.07560171380951175</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.237791048862846</v>
+        <v>6.328603303702096</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4209142018315504</v>
+        <v>0.330179347816312</v>
       </c>
       <c r="D25">
-        <v>0.1617417508112524</v>
+        <v>0.07653262217495183</v>
       </c>
       <c r="E25">
-        <v>0.1794083929520234</v>
+        <v>0.1043335284764844</v>
       </c>
       <c r="F25">
-        <v>1.954407016463563</v>
+        <v>1.89588113486279</v>
       </c>
       <c r="G25">
-        <v>1.308991014268571</v>
+        <v>1.640527879381153</v>
       </c>
       <c r="H25">
-        <v>1.155728654418482</v>
+        <v>0.888499318490517</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2357990689262337</v>
+        <v>0.1554231351526383</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1608325559549506</v>
+        <v>0.06975009595330306</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.033810303472819</v>
+        <v>5.289276300750487</v>
       </c>
     </row>
   </sheetData>
